--- a/public/lavadas.xlsx
+++ b/public/lavadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,51 +464,219 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>asas1239</t>
+          <t>JKJ3865</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>toyota</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-05-26 18:53 PM</t>
+          <t>2024-06-13 13:00 PM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-05-31 19:22:00</t>
+          <t>2024-06-18 23:00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>edicion</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dead3625</t>
+          <t>JPK2456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>chevy</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-05-26 19:25 PM</t>
+          <t>2024-06-13 13:09 PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-05-30 19:36:00</t>
-        </is>
-      </c>
+          <t>2024-06-18 23:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JLA3831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-06-13 14:07 PM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-06-11 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>294XUJ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-06-13 16:13 PM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-06-17 18:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>G19BMM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-06-13 18:57 PM</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JSJ2237</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-06-13 21:21 PM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JNR1775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-06-14 02:45 AM</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-06-21 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>JUB9526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-06-14 03:04 AM</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-06-18 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ALEJANDRA VANESSA JIMENEZ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>JLY1080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MITSUBISHI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-06-14 03:13 AM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HWF430A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PEUGEOT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-06-14 03:58 AM</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/lavadas.xlsx
+++ b/public/lavadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,222 +461,46 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JKJ3865</t>
+          <t>prueba0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>honda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-06-13 13:00 PM</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-06-18 23:00:00</t>
-        </is>
-      </c>
+          <t>2024-09-10 09:49 AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JPK2456</t>
+          <t>7163gmk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>honda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-06-13 13:09 PM</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-06-18 23:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>JLA3831</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HONDA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-06-13 14:07 PM</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-06-11 22:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>294XUJ</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>VOLKSWAGEN</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-06-13 16:13 PM</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-06-17 18:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>G19BMM</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2024-06-13 18:57 PM</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>JSJ2237</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MINI</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-06-13 21:21 PM</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>JNR1775</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024-06-14 02:45 AM</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024-06-21 19:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>JUB9526</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2024-06-14 03:04 AM</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024-06-18 23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ALEJANDRA VANESSA JIMENEZ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>JLY1080</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MITSUBISHI</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024-06-14 03:13 AM</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HWF430A</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PEUGEOT</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024-06-14 03:58 AM</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>2024-09-10 09:56 AM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/lavadas.xlsx
+++ b/public/lavadas.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$8</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,48 +463,161 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>prueba</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>prueba0</t>
+          <t>JRS6561</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-09-10 07:19 AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-09-12 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PYR831E</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:56 AM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-09-13 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23N050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:10 AM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-09-13 13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NAP068A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:02 AM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-09-14 10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JSL2080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-09-10 09:18 AM</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-09-15 13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C22BHG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:53 AM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-09-15 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ADOLFO REYES AGUIRRE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JSB4919</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>honda</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-09-10 09:49 AM</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7163gmk</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>honda</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-09-10 09:56 AM</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-09-11 17:41 PM</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E8"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/public/lavadas.xlsx
+++ b/public/lavadas.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$271</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,56 +438,46 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>cliente</t>
+          <t>Vehicle Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>placa</t>
+          <t>Plate Number</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>modelo</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>entrada</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>salida</t>
+          <t>Salida</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>JRS6561</t>
+          <t>JTV5139</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-09-10 07:19 AM</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-09-12 23:00:00</t>
+          <t>2024-10-12 20:00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>PYR831E</t>
+          <t>NJD9992</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -497,127 +487,4448 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-09-10 08:56 AM</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-09-13 00:00:00</t>
+          <t>2024-10-01 05:00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>23N050</t>
+          <t>08N313</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>MERCEDES BENZ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-09-10 09:10 AM</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-09-13 13:00:00</t>
+          <t>2024-09-30 20:01:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>NAP068A</t>
+          <t>JV54330</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-09-10 08:02 AM</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-09-14 10:00:00</t>
+          <t>2024-09-26 14:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>JSL2080</t>
+          <t>JX52294</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-09-10 09:18 AM</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-09-15 13:00:00</t>
+          <t>2024-09-25 23:00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>C22BHG</t>
+          <t>GTA739C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-09-24 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRG105D</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-09-23 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZEG643E</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-09-23 05:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PA0795B</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-09-22 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PPZ414C</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-09-22 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NZM6642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-09-22 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HSH225A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-09-22 18:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HUY253A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-09-22 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JLT9511</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-09-22 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PUB666A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-09-22 13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>JCZ3667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>JEEP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-09-22 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GG5980D</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-09-22 10:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>JX99174</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-09-21 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NL1977C</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-09-21 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PYA293C</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-09-21 22:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>JSS9977</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-09-21 22:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>JX11000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-09-21 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>JNZ7112</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-09-21 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>JRZ2200</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-09-21 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RHF503A</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-09-21 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FH6858A</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>JEEP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-09-21 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HTT108A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-09-21 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JNF3073</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ACURA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-09-21 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HSC185A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-09-21 10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>JLN1344</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024-09-21 06:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TMH4028</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-09-20 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HUM726A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-09-20 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>JTN8728</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024-09-20 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>JY56282</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024-09-20 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FUV048A</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024-09-20 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>HSJ796A</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-09-20 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AFC328E</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024-09-20 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>JTM7604</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024-09-20 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NJ5551C</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>JEEP</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024-09-20 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>JMH8430</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024-09-20 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>JRX9122</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024-09-20 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>JW56337</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2024-09-20 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>808XKT</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2024-09-20 08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>JMY8608</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2024-09-20 06:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HSK462A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2024-09-20 02:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>JRS3105</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>AUDI</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-09-10 08:53 AM</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024-09-15 20:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ADOLFO REYES AGUIRRE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024-09-19 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NM2261C</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MITSUBISHI</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024-09-19 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PRT474A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024-09-19 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PPC460C</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024-09-19 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>JRR1831</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2024-09-19 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>JHC2759</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>JEEP</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2024-09-19 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>05A150</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2024-09-19 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>JNJ9562</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2024-09-19 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>JPZ4405</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2024-09-19 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>JPP7395</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2024-09-19 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>JW42818</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2024-09-19 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PSR707B</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2024-09-19 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>JTC3400</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2024-09-19 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MZ6282A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MITSUBISHI</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2024-09-19 07:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JX33324</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2024-09-18 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RAX829C</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2024-09-18 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PJP986C</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2024-09-18 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>JMN4768</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2024-09-18 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>JRK9741</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2024-09-18 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PMS478A</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2024-09-18 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AFX720E</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2024-09-18 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PKM308C</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2024-09-18 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>JV70334</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2024-09-18 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JSM3044</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2024-09-18 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>JRS1345</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2024-09-18 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FYF054C</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2024-09-18 19:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>JSC9285</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2024-09-18 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JTT3662</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CADILLAC</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2024-09-18 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>JY04036</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2024-09-18 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JSG9681</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2024-09-18 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>JUD2663</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2024-09-18 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JPH8404</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2024-09-18 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>JSF1026</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2024-09-18 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>UWK184B</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2024-09-18 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>32N652</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2024-09-18 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PPR832A</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2024-09-18 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>32N761</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LEXUS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2024-09-18 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>JPS4314</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2024-09-18 09:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FWH470A</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SUZUKI</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2024-09-18 06:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>GMP354F</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2024-09-18 06:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>YPV498A</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2024-09-18 05:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>JPK7738</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DODGE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HTG892A</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>JSF6010</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>24N688</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>JSR1267</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>JPZ2958</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PG8534A</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2024-09-17 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>HWJ441A</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2024-09-17 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>JRD8030</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2024-09-17 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>JHS5126</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2024-09-17 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>JRK3013</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CHRYSLER</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2024-09-17 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>JTX3356</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2024-09-17 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>JMX9614</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2024-09-17 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>HWL745A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2024-09-17 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>JKT3834</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PUM417D</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>JTV5139</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>YVK378B</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>JUD2920</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RFJ512A</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>JLE2500</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>HVG123A</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>HETOUR</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>GRA234F</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PDE6609</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>JKC8904</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>JPC4101</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>JPX6429</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>JPE8029</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>12N853</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>VJY440C</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2024-09-17 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>JHB5804</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2024-09-17 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>13N260</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>JEEP</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2024-09-17 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>JSY6037</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2024-09-17 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>NN0747C</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2024-09-17 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>JY64885</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2024-09-17 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>JSS1851</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2024-09-17 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>JY54604</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2024-09-17 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>PKJ862B</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2024-09-17 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>HTH800A</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2024-09-17 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PE0760A</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2024-09-17 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>NH1317B</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>GNX898C</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>PKM071C</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>JUA2594</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>JKK6627</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>JSR6303</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2024-09-17 13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>JPG8335</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2024-09-17 13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>51H035</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2024-09-17 13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>HTH323A</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2024-09-17 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>JSB2784</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2024-09-17 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>PND096A</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>HSL431A</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>RBD161C</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>GMC</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>JSS3008</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>WHF862B</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DODGE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2024-09-17 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>JNT5610</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2024-09-17 08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>RGA258A</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>SUZUKI</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2024-09-17 08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>FWY655A</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2024-09-17 07:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>JV98254</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2024-09-17 05:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>HTB345A</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2024-09-17 04:28:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>RU6676A</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2024-09-17 00:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>JPG9971</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2024-09-16 23:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>JRD2354</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2024-09-16 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>JTW1645</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SUZUKI</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2024-09-16 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>GRZ166F</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2024-09-16 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>HWG503A</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CHIREY</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>PRK430D</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>JSY5015</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>JSH7007</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>CHRYSLER</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>JRM4216</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>JRN5623</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>PHL434D</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>JML1121</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2024-09-16 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>JY50796</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2024-09-16 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>JSE4002</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2024-09-16 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>HXP884A</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2024-09-16 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>JDA5063</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2024-09-16 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>GSC090E</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>JME7942</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>JSS2644</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>25N073</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>JX93375</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>JSU4139</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>JY24523</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>JTG2148</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>PWW217D</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>JRR1674</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>DODGE</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2024-09-16 20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>HFK611F</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2024-09-16 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>25N480</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>MERCEDES BENZ</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2024-09-16 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>15N941</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2024-09-16 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>JSR1579</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2024-09-16 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>JX09747</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2024-09-16 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>JMV9285</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>CHRYSLER</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2024-09-16 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>JRX1182</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2024-09-16 18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>39N143</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>BYD</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2024-09-16 17:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>JND8427</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2024-09-16 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>JTT2583</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2024-09-16 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>PRM1422</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2024-09-16 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>JX55161</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>JLY5763</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>10N808</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>JSU7969</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>JRB4630</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>45F060</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>HUZ593A</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CHIREY</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2024-09-16 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>JUE2242</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>JJA8436</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>26N862</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>VOLVO</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>NH2071A</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>JUD9567</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>PEUGEOT</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>PKS243C</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ADC572F</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>JPV2928</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>JW38986</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2024-09-16 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>JSJ7682</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>PGR9996</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>JTK4994</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2024-09-16 14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ZEZ876E</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2024-09-16 13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>JRC5729</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2024-09-16 13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>REY859B</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>MITSUBISHI</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>FSB004B</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>JEEP</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>XCZ044A</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ABG845F</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>SUZUKI</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>AFP335E</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TMJ1651</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2024-09-16 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>RFL582A</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2024-09-16 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>JSV4916</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>SUBARU</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2024-09-16 10:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>RJR786A</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024-09-16 10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>GSJ246F</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>SUZUKI</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2024-09-16 10:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>JTW9402</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2024-09-16 09:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>JRP5646</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2024-09-16 06:08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>NBH5784</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2024-09-16 02:51:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>JRS6217</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024-09-15 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>HU1210A</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2024-09-15 19:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>24N492</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2024-09-15 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>JTM9931</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>MINI COOPER</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024-09-15 09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>NGG6810</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024-09-15 04:56:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>JTM1368</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2024-09-15 04:31:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>PEDRO SAID COBIAN ELIZONDO</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>RHM537A</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2024-09-15 01:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>256ZJD</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2024-09-15 01:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>JUC3294</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2024-09-13 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>25N688</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2024-09-12 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>G88BDJ</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2024-09-12 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>JSY7644</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2024-09-12 09:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>JHW4297</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2024-09-12 09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>JTB4796</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024-09-11 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>HZY3080</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>MERCEDES BENZ</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2024-09-11 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>JPJ2882</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024-09-11 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>12N227</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024-09-11 16:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>HVD482A</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>JEEP</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2024-09-11 11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>JNK9759</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2024-09-10 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>JPE7281</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2024-09-09 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>TL1023G</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2024-09-09 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>JV55427</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2024-09-06 04:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>JPL9517</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>SUZUKI</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2024-09-02 22:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>pension8</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>honda</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="inlineStr">
         <is>
           <t>JSB4919</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>honda</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024-09-11 17:41 PM</t>
+    </row>
+    <row r="245">
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>697XVE</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>prueba25</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>prueba0</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>taxi06</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>prueba1</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>placa67</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>honda</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>123454</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>honda</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>89745</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>honda</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Tania</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>JRS3089</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>HWG959A</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>PEUGEOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>JPR4264</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>HYP9571</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>NUB8754</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>JUA5111</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ERNESTO MIRELES RIOS</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>PLC409D</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>MERCEDES BENZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>HWF430A</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>PEUGEOT</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>DNZ382F</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>NXJ2700</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>JSV4721</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>PPU353C</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>VJH568D</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>JTJ3272</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ADRIANA CORTES KUPFER</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>JRX5848</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>ABD703E</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>JPS6035</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>ALC417A</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>JJJ1440</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E8"/>
+  <autoFilter ref="A1:D271"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/public/lavadas.xlsx
+++ b/public/lavadas.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$D$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$F$208</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,67 +453,107 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Salida</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HASSINA ROSADO</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JTV5139</t>
+          <t>HWP998A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10-12 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0001-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-01-20 05:15:39</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>NJD9992</t>
+          <t>HX6680A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-10-01 05:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-02-19 18:00:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-02-17 11:13:14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>08N313</t>
+          <t>HYR432A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MERCEDES BENZ</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-09-30 20:01:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-02-20 11:00:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-02-20 02:56:06</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>JV54330</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>TOYOTA</t>
@@ -521,48 +561,78 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-09-26 14:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:15:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-02-19 14:15:38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>JX52294</t>
+          <t>UZW761D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-09-25 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-02-22 18:00:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-02-19 12:46:06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>GTA739C</t>
+          <t>PPX215A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VOLVO</t>
+          <t>HYUNDAY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-09-24 22:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:30:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:46:01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>PRG105D</t>
+          <t>JSZ6776</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,1255 +642,1995 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-09-23 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-02-23 11:30:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-02-15 02:38:40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZEG643E</t>
+          <t>JSM1258</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-09-23 05:00:00</t>
+          <t>TINTO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:00:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-02-21 12:57:06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>PA0795B</t>
+          <t>REF026B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>DODGE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-09-22 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-02-24 01:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-02-21 08:55:23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>PPZ414C</t>
+          <t>JAM364A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>PEUGEOT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-09-22 20:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-02-24 09:30:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-02-20 17:51:58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>NZM6642</t>
+          <t>JKG5113</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>RENAULT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-09-22 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-02-24 10:00:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-02-21 08:05:20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>HSH225A</t>
+          <t>BNZ781</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>MERCEDES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-09-22 18:01:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-02-24 10:00:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:44:36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>HUY253A</t>
+          <t>HWF606A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-09-22 18:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-02-24 10:00:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-02-21 06:57:32</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>JLT9511</t>
+          <t>JPW2013</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-09-22 14:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:59:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-02-20 20:07:46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUB666A</t>
+          <t>TMR8411</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>JEEP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-09-22 13:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:59:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-02-22 04:34:14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>JCZ3667</t>
+          <t>48N944</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JEEP</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-09-22 12:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:59:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-02-21 05:01:05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>GG5980D</t>
+          <t>PUN310D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RAM</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-09-22 10:01:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:59:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-02-21 05:37:43</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>JX99174</t>
+          <t>JNV6672</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-09-21 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-02-21 08:32:55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>NL1977C</t>
+          <t>JSC6430</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-09-21 23:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:13:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-02-21 10:14:52</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>PYA293C</t>
+          <t>JSB8128</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-09-21 22:30:00</t>
+          <t>TINTO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-02-24 14:00:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:34:47</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>JSS9977</t>
+          <t>AC2392E</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>RENAULT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-09-21 22:30:00</t>
+          <t>VINO</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-02-24 14:00:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-02-21 04:57:29</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>JX11000</t>
+          <t>VDB845</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>RENAULT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-09-21 22:00:00</t>
+          <t>TINTO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-02-24 15:50:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-02-21 14:13:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>JNZ7112</t>
+          <t>JRV4581</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-09-21 20:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-02-24 16:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:28:26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>JRZ2200</t>
+          <t>41N393</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>BYD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-09-21 18:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-02-24 16:00:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:48:20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>RHF503A</t>
+          <t>JRU5891</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-09-21 17:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-02-24 16:00:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-02-21 05:14:23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>FH6858A</t>
+          <t>JSF7954</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JEEP</t>
+          <t>SUZUKI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-09-21 14:00:00</t>
+          <t>TINTO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-02-24 17:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:40:25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>HTT108A</t>
+          <t>JSJ6008</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-09-21 11:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-02-24 17:00:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-02-20 07:26:50</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>JNF3073</t>
+          <t>JMP9696</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ACURA</t>
+          <t>YAMAHA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-09-21 11:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-02-24 17:00:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-02-20 18:12:44</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>HSC185A</t>
+          <t>JLL7839</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-09-21 10:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-02-24 17:00:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-02-21 05:24:17</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>JLN1344</t>
+          <t>JRP4019</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-09-21 06:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-02-24 18:00:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-02-21 07:16:02</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>TMH4028</t>
+          <t>AFU643B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-09-20 22:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-02-24 18:00:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-02-18 15:21:29</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>HUM726A</t>
+          <t>HX4982A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>GMC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-09-20 22:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-02-24 18:00:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-02-22 10:56:28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>JTN8728</t>
+          <t>80N208</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-09-20 21:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-02-24 18:00:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-02-22 08:37:44</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>JY56282</t>
+          <t>JPY2719</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-09-20 20:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-02-24 18:00:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-02-20 06:50:07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>FUV048A</t>
+          <t>TA0372M</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-09-20 19:00:00</t>
+          <t>NARANJA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-02-24 18:00:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:04:27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>HSJ796A</t>
+          <t>ASU344A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-09-20 18:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-02-24 19:00:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-02-21 06:50:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>AFC328E</t>
+          <t>JTU3935</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-09-20 17:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-02-24 19:00:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-02-17 07:32:47</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>JTM7604</t>
+          <t>PZL694C</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>SUBURBAN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-09-20 17:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-02-24 20:00:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:08:19</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>NJ5551C</t>
+          <t>JTK9540</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JEEP</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-09-20 17:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-02-24 20:00:00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:01:39</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>JMH8430</t>
+          <t>JTA3759</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-09-20 15:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-02-24 20:00:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:56:58</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>JRX9122</t>
+          <t>JY64213</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>LICOLN</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-09-20 14:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-02-24 20:00:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:14:25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>JW56337</t>
+          <t>JUC6638</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>JEEP</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-09-20 11:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-02-24 20:30:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-02-19 14:07:38</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>808XKT</t>
+          <t>PPE975C</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-09-20 08:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:00:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-02-14 15:28:23</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>JMY8608</t>
+          <t>G71AXA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-09-20 06:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:00:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:43:27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>HSK462A</t>
+          <t>PDE6609</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-09-20 02:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:00:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-02-21 02:19:18</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>JRS3105</t>
+          <t>PJG122D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AUDI</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-09-19 23:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:00:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-02-21 14:18:31</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>NM2261C</t>
+          <t>JX32192</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MITSUBISHI</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-09-19 23:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:20:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:59:30</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>PRT474A</t>
+          <t>JHE5802</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-09-19 23:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:30:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:50:45</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>PPC460C</t>
+          <t>JY12751</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-09-19 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-02-21 04:56:34</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>JRR1831</t>
+          <t>JUD9029</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-09-19 21:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:49:32</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>JHC2759</t>
+          <t>JN21190</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>JEEP</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-09-19 19:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-02-20 12:24:53</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>05A150</t>
+          <t>JSY2453</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-09-19 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:34:29</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>JNJ9562</t>
+          <t>UN6283A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>CUPRA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-09-19 18:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-02-21 11:02:26</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>JPZ4405</t>
+          <t>HYZ654A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-09-19 18:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-02-22 16:59:52</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>JPP7395</t>
+          <t>DPX635C</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>AUDI</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-09-19 18:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-02-20 05:05:01</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>JW42818</t>
+          <t>HWU906A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>CUPRA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-09-19 16:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:03:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-02-21 11:04:48</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>PSR707B</t>
+          <t>HYC955A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-09-19 12:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:00:00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-02-21 07:19:37</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>JTC3400</t>
+          <t>JRS2902</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-09-19 11:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:00:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-02-21 14:01:30</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>MZ6282A</t>
+          <t>PGG159P</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MITSUBISHI</t>
+          <t>JEEP</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-09-19 07:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:00:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-02-21 04:01:21</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>JX33324</t>
+          <t>HW4276A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-09-18 23:00:00</t>
+          <t>GRIS OSCURO</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:00:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-02-24 03:27:14</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>RAX829C</t>
+          <t>FRH421B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-09-18 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:00:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-02-19 12:11:20</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>PJP986C</t>
+          <t>JTA4057</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AUDI</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-09-18 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:00:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:35:38</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>JMN4768</t>
+          <t>FRZ580B</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>SENTRA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-09-18 21:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:30:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-02-21 13:06:42</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>JRK9741</t>
+          <t>HSC023A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-09-18 21:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:30:00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:46:34</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>PMS478A</t>
+          <t>JT81529</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-09-18 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-02-24 23:59:00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:10:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>AFX720E</t>
+          <t>JAD612A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>RENAULT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-09-18 20:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-02-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-02-20 04:31:26</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>PKM308C</t>
+          <t>JS55555</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-09-18 20:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-02-25 11:00:00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-02-22 04:51:38</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>JV70334</t>
+          <t>JRZ6553</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>RENAULT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-09-18 20:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-02-25 11:00:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-02-21 20:10:06</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>JSM3044</t>
+          <t>JGX7216</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-09-18 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-02-25 11:59:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-02-20 04:36:16</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>JRS1345</t>
+          <t>JKN3814</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-09-18 20:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-02-25 11:59:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-02-20 05:39:29</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>FYF054C</t>
+          <t>JRR9028</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>HYUNDAI</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-09-18 19:40:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2025-02-25 12:00:00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-02-21 08:42:14</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>JSC9285</t>
+          <t>HWV334A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-09-18 19:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2025-02-25 12:30:00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-02-23 04:08:54</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>JTT3662</t>
+          <t>PMR291B</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CADILLAC</t>
+          <t>TOWN CONTRY</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-09-18 17:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025-02-25 13:00:00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-02-20 05:48:12</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>JY04036</t>
+          <t>VEP422C</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>X1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-09-18 17:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-02-25 14:00:00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-02-20 10:36:20</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>JSG9681</t>
+          <t>HSY485A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-09-18 17:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-02-25 16:00:00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-02-22 08:44:03</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>JUD2663</t>
+          <t>TMP9502</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>PEUGEOT</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-09-18 17:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-02-25 17:00:00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-02-21 07:43:53</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>JPH8404</t>
+          <t>BPD216A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-09-18 16:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-02-25 17:00:00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-02-21 05:16:34</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>JSF1026</t>
+          <t>JTW3372</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-09-18 15:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-02-25 17:00:00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-02-22 14:35:08</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>UWK184B</t>
+          <t>39N110</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>AUDI</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-09-18 14:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-02-25 17:00:00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-02-23 12:32:18</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>32N652</t>
+          <t>JSW8891</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AUDI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-09-18 14:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-02-25 18:00:00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:00:29</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>PPR832A</t>
+          <t>JLU7836</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1830,240 +2640,375 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-09-18 12:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-02-25 18:00:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-02-21 04:27:32</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>32N761</t>
+          <t>JY19123</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LEXUS</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-09-18 12:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-02-25 18:00:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-02-24 03:46:43</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>JPS4314</t>
+          <t>JSS4395</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AUDI</t>
+          <t>RAM</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-09-18 09:03:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-02-25 20:00:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:26:51</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>FWH470A</t>
+          <t>HXW76PA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SUZUKI</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-09-18 06:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-02-25 20:00:00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-02-21 18:35:26</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>GMP354F</t>
+          <t>HYE432A</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>TRACKER</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-09-18 06:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-02-25 20:40:00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:28:32</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>YPV498A</t>
+          <t>GUX412D</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>NISAN</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-09-18 05:00:00</t>
+          <t>TINTA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:00:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-02-20 17:55:43</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>JPK7738</t>
+          <t>JLT5959</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DODGE</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-09-17 23:02:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:00:00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-02-20 21:25:22</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>HTG892A</t>
+          <t>WFL598B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-09-17 23:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025-02-25 22:00:00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-02-18 17:34:07</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>JSF6010</t>
+          <t>PUD6910</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>PORSCHE</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-09-17 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-02-25 23:00:00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:13:49</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>24N688</t>
+          <t>JSR1210</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VOLVO</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-09-17 23:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-02-25 23:00:00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-02-21 04:56:59</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>VOLKSWAGEN</t>
-        </is>
-      </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JSR1267</t>
+          <t>NK0683C</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>RENAULT</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-09-17 23:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025-02-25 23:00:00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025-02-23 03:09:43</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>JPZ2958</t>
+          <t>JSS9240</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>HYUNDAI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-09-17 23:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025-02-25 23:59:00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-02-19 21:16:14</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>PG8534A</t>
+          <t>FFW246A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-09-17 23:00:00</t>
+          <t>ARENA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-02-25 23:59:00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:11:07</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>HWJ441A</t>
+          <t>RX7684</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-09-17 22:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025-02-25 23:59:00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-02-23 05:03:59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>JRD8030</t>
+          <t>PNG872B</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,82 +3018,132 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-09-17 22:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025-02-26 01:00:00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-02-22 08:50:16</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>JHS5126</t>
+          <t>JFP6458</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-09-17 22:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:00:00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:26:16</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>JRK3013</t>
+          <t>37F483</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CHRYSLER</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-09-17 21:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:00:00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025-02-23 15:16:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>JTX3356</t>
+          <t>RHJ745A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-09-17 21:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025-02-26 11:59:00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2025-02-23 06:01:58</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>JMX9614</t>
+          <t>HWD290A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-09-17 21:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025-02-26 14:00:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025-02-19 08:46:11</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>HWL745A</t>
+          <t>JY55102</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,99 +3153,159 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-09-17 21:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025-02-26 15:00:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025-02-22 07:09:46</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>JKT3834</t>
+          <t>U69AST</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>DODGE</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-09-17 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025-02-26 16:00:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2025-02-23 02:41:24</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>PUM417D</t>
+          <t>JSEE9872</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-09-17 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:00:00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025-02-23 12:56:39</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>JTV5139</t>
+          <t>HSN559A</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-09-17 20:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025-02-26 17:00:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025-02-17 10:29:05</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>YVK378B</t>
+          <t>JUA1115</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-09-17 20:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025-02-26 18:00:00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025-02-19 05:29:52</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>JUD2920</t>
+          <t>JST9684</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>LEXUS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-09-17 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025-02-26 19:00:00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:30:14</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>RFJ512A</t>
+          <t>PHJ748C</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,150 +3315,240 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-09-17 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025-02-26 19:00:00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025-02-19 07:03:26</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>JLE2500</t>
+          <t>NF9957C</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-09-17 20:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025-02-26 20:00:00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:09:03</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>HVG123A</t>
+          <t>JRN9827</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>HETOUR</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-09-17 20:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025-02-26 20:00:00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-02-23 05:19:33</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>GRA234F</t>
+          <t>JJY5226</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-09-17 19:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-02-26 21:00:00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:32:46</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>PDE6609</t>
+          <t>HTB110A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-09-17 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-02-26 21:00:00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025-02-22 06:51:06</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>JKC8904</t>
+          <t>JU5566</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-09-17 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025-02-26 21:30:00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025-02-23 06:34:05</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>JPC4101</t>
+          <t>M16BBF</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-09-17 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025-02-26 22:00:00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:21:04</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>JPX6429</t>
+          <t>JTK2001</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>CHANGAN</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-09-17 19:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025-02-26 23:00:00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025-02-21 05:20:25</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>JPE8029</t>
+          <t>PWU508D</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>MERCEDES</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-09-17 19:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025-02-26 23:59:00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025-02-21 00:11:29</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>12N853</t>
+          <t>PHD249B</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,558 +3558,893 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-09-17 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025-02-27 01:50:00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:05:39</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>VJY440C</t>
+          <t>JPK9447</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-09-17 18:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025-02-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025-02-19 02:28:45</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>JHB5804</t>
+          <t>JSH9183</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-09-17 18:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025-02-27 11:59:00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:15:09</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>13N260</t>
+          <t>PMT642B</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>JEEP</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-09-17 17:00:00</t>
+          <t>ARENA</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025-02-27 12:00:00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:16:36</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>JSY6037</t>
+          <t>JEA8785</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-09-17 17:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2025-02-27 14:00:00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025-02-23 05:55:56</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>NN0747C</t>
+          <t>HVF835A</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-09-17 17:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025-02-27 15:00:00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025-02-23 09:49:48</t>
         </is>
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ONE PARK</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>JY64885</t>
+          <t>PJK325D</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>JEEP</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-09-17 16:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2025-02-27 15:00:00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025-02-23 03:17:49</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>JSS1851</t>
+          <t>PMZ401B</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>VOLVO</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-09-17 16:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025-02-27 15:00:00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025-02-23 08:31:39</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>JY54604</t>
+          <t>JTU3619</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-09-17 16:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2025-02-27 15:00:00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025-02-17 12:35:22</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>PKJ862B</t>
+          <t>JRY2479</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-09-17 16:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:00:00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:19:31</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>HTH800A</t>
+          <t>HVV055A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-09-17 15:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:00:00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025-02-23 06:20:21</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>PE0760A</t>
+          <t>JSY9831</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>RAM</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-09-17 15:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:00:00</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025-02-23 06:19:44</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>NH1317B</t>
+          <t>GTM543F</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-09-17 14:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2025-02-27 17:00:00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:11:37</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>GNX898C</t>
+          <t>JMF8017</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-09-17 14:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025-02-27 17:00:00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2025-02-20 06:12:16</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>PKM071C</t>
+          <t>JV55115</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-09-17 14:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2025-02-27 18:00:00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:35:22</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>JUA2594</t>
+          <t>JPT2263</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-09-17 14:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2025-02-27 19:00:00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:25:23</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>JKK6627</t>
+          <t>JFK7547</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2024-09-17 14:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2025-02-27 19:00:00</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2025-02-24 07:00:11</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>JSR6303</t>
+          <t>JUC6479</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2024-09-17 13:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2025-02-27 19:50:00</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2025-02-23 11:33:55</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>JPG8335</t>
+          <t>JJF6043</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>YAMAHA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2024-09-17 13:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2025-02-27 20:00:00</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2025-02-21 16:28:20</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>51H035</t>
+          <t>RHF997A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2024-09-17 13:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2025-02-27 20:00:00</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2025-02-19 07:23:30</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>HTH323A</t>
+          <t>51N435</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2024-09-17 12:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2025-02-27 21:09:00</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2025-02-21 11:10:46</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>JSB2784</t>
+          <t>HVN985A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2024-09-17 12:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:30:00</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:17:07</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>PND096A</t>
+          <t>JBB4202</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2024-09-17 11:30:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2025-02-27 23:00:00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2025-02-17 13:32:58</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>HSL431A</t>
+          <t>HZA210A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2024-09-17 11:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2025-02-28 01:00:00</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:45:39</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>RBD161C</t>
+          <t>HZD251A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>GMC</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2024-09-17 11:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2025-02-28 10:00:00</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:25:49</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>JSS3008</t>
+          <t>JV44297</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2024-09-17 11:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025-02-28 11:00:00</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:14:00</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>WHF862B</t>
+          <t>JKG3175</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DODGE</t>
+          <t>JEEP</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2024-09-17 11:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2025-02-28 13:00:00</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2025-02-11 20:23:00</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>JNT5610</t>
+          <t>JPP5670</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2024-09-17 08:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2025-02-28 15:00:00</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2025-02-24 00:29:43</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>RGA258A</t>
+          <t>NZA2412</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SUZUKI</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2024-09-17 08:00:00</t>
+          <t>TINTO</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2025-02-28 15:00:00</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:47:59</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>FWY655A</t>
+          <t>HTH544A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2024-09-17 07:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2025-02-28 17:00:00</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:07:25</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>JV98254</t>
+          <t>JMF7864</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>JEEP</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2024-09-17 05:30:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2025-02-28 20:00:00</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2025-02-22 05:31:02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>HTB345A</t>
+          <t>JHL2302</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>LICOLN</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2024-09-17 04:28:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2025-02-28 21:00:00</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2025-02-24 02:46:56</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>RU6676A</t>
+          <t>HX3927A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2024-09-17 00:01:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025-02-28 22:00:00</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2025-02-24 03:41:18</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>JPG9971</t>
+          <t>JSS8154</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2974,150 +4454,240 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2024-09-16 23:30:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2025-02-28 22:00:00</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:34:47</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>JRD2354</t>
+          <t>JV61419</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>DODGE</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2024-09-16 23:00:00</t>
+          <t>VINO</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025-02-28 23:59:00</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2025-02-24 02:58:22</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>JTW1645</t>
+          <t>JRF2613</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SUZUKI</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2024-09-16 23:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025-03-01 06:00:00</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2025-02-08 11:27:24</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>GRZ166F</t>
+          <t>GVE144F</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2024-09-16 23:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025-03-01 08:30:00</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2025-02-24 03:30:27</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>HWG503A</t>
+          <t>JV77967</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CHIREY</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2024-09-16 22:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2025-03-01 11:30:00</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:59:36</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>PRK430D</t>
+          <t>PHJ738D</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>FIAT</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2024-09-16 22:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025-03-01 12:00:00</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:06:00</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>JSY5015</t>
+          <t>PHE007E</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2024-09-16 22:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:00:00</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025-02-22 11:55:20</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>JSH7007</t>
+          <t>ZG0096C</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CHRYSLER</t>
+          <t>NISSAN</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2024-09-16 22:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:00:00</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:52:11</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>JRM4216</t>
+          <t>AB3796F</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2024-09-16 22:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025-03-01 16:00:00</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:03:10</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>JRN5623</t>
+          <t>JSY2365</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3127,184 +4697,294 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2024-09-16 22:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2025-03-01 17:30:00</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:06:02</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>PHL434D</t>
+          <t>HSD386A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2024-09-16 22:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2025-03-01 19:00:00</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2025-02-24 03:51:34</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>JML1121</t>
+          <t>JTL5315</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2024-09-16 22:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2025-03-01 19:00:00</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2025-02-22 07:29:57</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>JY50796</t>
+          <t>JBF9034</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2024-09-16 21:00:00</t>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2025-03-01 19:00:00</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2025-02-23 05:32:41</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>JSE4002</t>
+          <t>GXH530E</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2024-09-16 21:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2025-03-01 19:00:00</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2025-02-23 07:37:32</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>HXP884A</t>
+          <t>A65BJF</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2024-09-16 21:00:00</t>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2025-03-01 20:00:00</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2025-02-23 17:32:28</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>JDA5063</t>
+          <t>06N656</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2024-09-16 21:00:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2025-03-01 21:00:00</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2025-02-24 03:11:33</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>GSC090E</t>
+          <t>JRZ2551</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>AUDI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2024-09-16 20:01:00</t>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2025-03-01 23:59:00</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2025-02-23 03:29:56</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>JME7942</t>
+          <t>PHL070D</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2025-03-02 11:00:00</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2025-02-22 02:37:46</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>JSS2644</t>
+          <t>RFW171A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>VOLKSWAGEN</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2025-03-02 21:30:00</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:15:49</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>25N073</t>
+          <t>JTJ3907</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2025-03-02 23:00:00</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2025-02-15 02:16:00</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>JX93375</t>
+          <t>JY42124</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3314,99 +4994,164 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2025-03-03 17:00:00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2025-02-14 09:43:16</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>JSU4139</t>
+          <t>HUM247A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NISSAN</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2025-03-03 23:00:00</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:47:32</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>JY24523</t>
+          <t>GLF777F</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>VOLKSWAGEN</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2025-03-03 23:27:00</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:29:42</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>JTG2148</t>
+          <t>JW70929</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>TOYOTA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:00:00</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2025-02-24 03:18:30</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>PWW217D</t>
+          <t>PGT874E</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2025-03-06 17:00:00</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2025-02-24 02:57:30</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>JRR1674</t>
+          <t>FSD800D</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DODGE</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2024-09-16 20:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2025-04-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:15:12</t>
         </is>
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SHIRLEY BARAJAS</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>HFK611F</t>
+          <t>JRP564</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3416,490 +5161,775 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2024-09-16 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2025-01-19 19:55:14</t>
         </is>
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ANA KAREN VARELA ROSADO</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>25N480</t>
+          <t>HMD371D</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MERCEDES BENZ</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2024-09-16 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:11:41</t>
         </is>
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>VERONICA ROMERO VENEGAS</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>15N941</t>
+          <t>JPV1807</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>AUDI</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2024-09-16 19:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2025-01-30 02:56:34</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>JSR1579</t>
+          <t>3351GML</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>NISSAN</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:46:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ANDREA MARQUEZ GARCIA</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>JNK6702</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>VW</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2025-02-04 04:32:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ALEXIA PAULETH URIBE</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>NXJ2700.</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>VW</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2025-01-04 12:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ADRIANA CORTES KUPFER</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>JRX5848</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2025-02-24 06:06:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ANDREA MARQUEZ GARCIA</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>JNK6702</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>VW</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2025-01-30 20:46:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>FATIMA MELISA GUILLEN NAVARRO</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>JTC5428</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2025-02-01 16:14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>JORGE ISMAEL ALMADA REAL</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>PUG968C</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>AUDI</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>NEGRO</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2025-01-23 18:16:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ANDREA MARQUEZ GARCIA</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>JNK6702</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>VOLKSWAGEN</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2025-02-01 15:34:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>LEOPOLDO BUSTILLOS</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>JPS6035</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>TOYOTA</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:44:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ANDREA GUADALUPE FLORES ALVARADO</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>PSE642B</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
           <t>HONDA</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2024-09-16 19:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>JX09747</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>LUIS RICARDO MERCADO HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>LNR876B</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2025-02-23 14:32:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SHIRLEY BARAJAS</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>JRP5646</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2025-02-22 18:16:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>HASSINA ROSADO</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>HWP998A</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2025-02-22 04:58:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>VERONICA ELIZABETH MEJIA CONTRERAS</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>PYB368D</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>VW-JETTA</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2025-02-20 04:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ADRIANA LUPERCIO</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>JTJ3272</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>TINTO</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2025-02-23 06:14:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ALEJANDRA IDELETH GARCIA MORALES</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>JTL3439</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:11:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>EDUARDO SOSA</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>256ZJD</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
         <is>
           <t>TOYOTA</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>JMV9285</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>CHRYSLER</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>JRX1182</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2024-09-16 18:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>39N143</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>BYD</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>JND8427</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2025-02-22 11:30:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ADAXIRI ALMEIDA</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>JPN5257</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>VW</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2025-02-23 03:52:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ALEJANDRA IDELETH GARCIA MORALES</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>JTH3934</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>MAZDA</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2025-02-23 03:39:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>VERONICA ROMERO VENEGAS</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>JKH9127</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>HONDA</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>PLATA</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:56:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>NANCY FLORES NAVARRO</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>JTL9437</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
         <is>
           <t>NISSAN</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>JTT2583</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>PRM1422</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>2024-09-16 17:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>JX55161</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>RAM</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>JLY5763</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>10N808</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2025-02-23 21:58:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>EVA SANCHEZ</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>DNZ382F</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
         <is>
           <t>TOYOTA</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>JSU7969</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>JRB4630</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>45F060</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>HUZ593A</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>CHIREY</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>2024-09-16 16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>JUE2242</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>JJA8436</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>HONDA</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:01:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>26N862</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>VOLVO</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>NH2071A</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>JUD9567</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>PEUGEOT</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>PKS243C</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>HONDA</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>2024-09-16 15:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ADC572F</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>AUDI</t>
-        </is>
-      </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2024-09-16 15:00:00</t>
+          <t>BLANCA</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2025-02-24 05:07:00</t>
         </is>
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ANDREA MARQUEZ GARCIA</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>JPV2928</t>
+          <t>JNK6702</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>VW</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2024-09-16 15:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2025-02-06 19:41:12</t>
         </is>
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ANDREA MARQUEZ GARCIA</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>JW38986</t>
+          <t>JNK6702</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
+          <t>VW</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2024-09-16 15:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2025-02-24 04:51:26</t>
         </is>
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ANDREA MARQUEZ GARCIA</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>JSJ7682</t>
+          <t>JNK6702</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>VW</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2024-09-16 14:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2025-02-07 04:28:38</t>
         </is>
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>JESUS SOTO</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PGR9996</t>
+          <t>XUL207A</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>VW</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2024-09-16 14:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2025-02-10 19:57:20</t>
         </is>
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BRANDON ESPAÑA BAUTISTA</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>JTK4994</t>
+          <t>LKS045A</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3909,1026 +5939,125 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2024-09-16 14:00:00</t>
+          <t>GRIS</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2025-02-21 05:20:47</t>
         </is>
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ERNESTO MIRELES RIOS</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ZEZ876E</t>
+          <t>PLC409D</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>MERCEDES BENZ</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2024-09-16 13:00:00</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2025-02-12 05:09:20</t>
         </is>
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ANDREA MARQUEZ GARCIA</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>JRC5729</t>
+          <t>JNK6702</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>VW</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2024-09-16 13:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2025-02-13 02:47:13</t>
         </is>
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>PATRICIA MONSERRAT FLORES MIRANDA</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>REY859B</t>
+          <t>ALC417A</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MITSUBISHI</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2024-09-16 12:00:00</t>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2025-02-21 07:45:43</t>
         </is>
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>XALLI ARAMBULA ARMENTA</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FSB004B</t>
+          <t>VJH568D</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>JEEP</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2024-09-16 12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>XCZ044A</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>ABG845F</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>SUZUKI</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>AFP335E</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>TMJ1651</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>AUDI</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>2024-09-16 12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>RFL582A</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>FORD</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>2024-09-16 11:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>JSV4916</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>SUBARU</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>RJR786A</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>GSJ246F</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>SUZUKI</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>2024-09-16 10:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>JTW9402</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>JAC</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>2024-09-16 09:55:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>JRP5646</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>HONDA</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>2024-09-16 06:08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>NBH5784</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>VOLKSWAGEN</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>2024-09-16 02:51:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>JRS6217</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>2024-09-15 23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>HU1210A</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>2024-09-15 19:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>24N492</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>2024-09-15 15:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>JTM9931</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>MINI COOPER</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>2024-09-15 09:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>NGG6810</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>VOLKSWAGEN</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>2024-09-15 04:56:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>JTM1368</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>HONDA</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>2024-09-15 04:31:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>PEDRO SAID COBIAN ELIZONDO</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>RHM537A</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>CHEVROLET</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>2024-09-15 01:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>256ZJD</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>2024-09-15 01:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>JUC3294</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>2024-09-13 23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>25N688</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>2024-09-12 23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>G88BDJ</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>2024-09-12 22:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>JSY7644</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>2024-09-12 09:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>JHW4297</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>FORD</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>2024-09-12 09:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>JTB4796</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>2024-09-11 23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>HZY3080</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>MERCEDES BENZ</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>2024-09-11 22:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>JPJ2882</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>2024-09-11 22:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>12N227</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>2024-09-11 16:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>HVD482A</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>JEEP</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>2024-09-11 11:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>JNK9759</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>HONDA</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>2024-09-10 21:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>JPE7281</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>HONDA</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>2024-09-09 23:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>TL1023G</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>NISSAN</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>2024-09-09 12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>JV55427</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>FORD</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>2024-09-06 04:05:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>JPL9517</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>SUZUKI</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>2024-09-02 22:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>pension8</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>honda</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>JSB4919</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>honda</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>697XVE</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>CHEVROLET</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>prueba25</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>prueba0</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>taxi06</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>prueba1</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>placa67</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>honda</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>123454</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>honda</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>89745</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>honda</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Tania</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>JRS3089</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>HWG959A</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>PEUGEOT</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>JPR4264</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>VOLKSWAGEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>HYP9571</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>VOLKSWAGEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>NUB8754</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>CHEVROLET</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>JUA5111</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>ERNESTO MIRELES RIOS</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>PLC409D</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>MERCEDES BENZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>HWF430A</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>PEUGEOT</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>DNZ382F</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>NXJ2700</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>VOLKSWAGEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>JSV4721</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>PPU353C</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>FORD</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>VJH568D</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>JTJ3272</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>HONDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>ADRIANA CORTES KUPFER</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>JRX5848</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>ABD703E</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>JPS6035</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>ALC417A</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>JJJ1440</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>MAZDA</t>
+          <t>BLANCO</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2025-02-22 17:33:20</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D271"/>
+  <autoFilter ref="A1:F208"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>